--- a/biology/Botanique/Adenocarpus_mannii/Adenocarpus_mannii.xlsx
+++ b/biology/Botanique/Adenocarpus_mannii/Adenocarpus_mannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adenocarpus mannii Hook.f. est une espèce de plantes à fleurs de la famille des Fabaceae et du genre Adenocarpus. C'est un arbrisseau présent principalement au Cameroun, également sur l'île de Bioko en Guinée équatoriale.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique mannii rend hommage au botaniste Gustav Mann qui, en 1861, réalisa l'ascension du mont Cameroun avec Richard Francis Burton et y collecta de nombreuses plantes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique mannii rend hommage au botaniste Gustav Mann qui, en 1861, réalisa l'ascension du mont Cameroun avec Richard Francis Burton et y collecta de nombreuses plantes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (29 septembre 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (29 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Adenocarpus mannii var. laevicarpa Verdc.
 variété Adenocarpus mannii var. mannii</t>
         </is>
@@ -574,10 +590,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété Adenocarpus mannii var. laevicarpa Verdc. est endémique du Cameroun. En 1965, un spécimen a été collecté par Jean Raynal dans les monts Atlantika, à une altitude de 1 700 m, dans le village de Kingélou, à 23 km à l'ouest de Tchamba[5] (région du Nord).
-La variété Adenocarpus mannii var. mannii, avec des feuilles et des folioles plus petites, a été récolté au Clarence Peak à Bioko[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété Adenocarpus mannii var. laevicarpa Verdc. est endémique du Cameroun. En 1965, un spécimen a été collecté par Jean Raynal dans les monts Atlantika, à une altitude de 1 700 m, dans le village de Kingélou, à 23 km à l'ouest de Tchamba (région du Nord).
+La variété Adenocarpus mannii var. mannii, avec des feuilles et des folioles plus petites, a été récolté au Clarence Peak à Bioko.
 </t>
         </is>
       </c>
